--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_04_beg.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_04_beg.xlsx
@@ -1312,7 +1312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mayer"]He opens his mouth and you go “wow, he's a big, smart cookie,” but he gives off this kinda feeling like...
+    <t xml:space="preserve">[name="Mayer"]He opens his mouth and you go 'wow, he's a big, smart cookie,' but he gives off this kinda feeling like...
 </t>
   </si>
   <si>
@@ -1708,7 +1708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kafka"]Ahah. Imagine if I asked a stranger outta nowhere “hey, let's get locked up together.” Don't matter how I ask, they'd think I was going nuts, right. So I needed a little more of an approach, yannow?
+    <t xml:space="preserve">[name="Kafka"]Ahah. Imagine if I asked a stranger outta nowhere 'hey, let's get locked up together.' Don't matter how I ask, they'd think I was going nuts, right. So I needed a little more of an approach, yannow?
 </t>
   </si>
   <si>
@@ -1716,7 +1716,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kafka"]Heehee. No, but anyways, I just don't think this is really a “good or bad” kinda thing.
+    <t xml:space="preserve">[name="Kafka"]Heehee. No, but anyways, I just don't think this is really a 'good or bad' kinda thing.
 </t>
   </si>
   <si>
@@ -2188,7 +2188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="카프카"]응…… 카프카랑 사일런스는, 사일런스가 언제 한 번 출장을 나왔을 때 알게 되었어.
+    <t xml:space="preserve">[name="카프카"]응…… 카프카랑 사일런스는, 사일런스가 언제 한 번 외근을 나왔을 때 알게 되었어.
 </t>
   </si>
   <si>
@@ -2316,7 +2316,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="카프카"]아, 교도관 왔다. 나 일해야 돼. 이따가 의무실에서 봐.
+    <t xml:space="preserve">[name="카프카"]아, 교도관 왔다. 카프카는 일해야 돼. 이따가 의무실에서 봐.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_04_beg.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_04_beg.xlsx
@@ -1184,7 +1184,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Silence"]I’m alright.
+    <t xml:space="preserve">[name="Silence"]I'm alright.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_04_beg.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_04_beg.xlsx
@@ -792,7 +792,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="サイレンス"]これらは、私の個人的なルートで収集し分析して得た情報であり、ライン生命とは直接的関係はない。
+    <t xml:space="preserve">[name="サイレンス"]これらは、私が個人的なルートで収集し分析して得た情報であり、ライン生命とは直接的関係はない。
 </t>
   </si>
   <si>
@@ -872,7 +872,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ケルシー"]君には最後まで思いを貫き通せしてほしいと思っている。
+    <t xml:space="preserve">[name="ケルシー"]君には最後まで君の思いを貫き通してほしいと思っている。
 </t>
   </si>
   <si>
